--- a/data/output/FV2304_FV2210/UTILMD/11149.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11149.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9452" uniqueCount="583">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="583">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1925,6 +1925,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U432" totalsRowShown="0">
+  <autoFilter ref="A1:U432"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2214,7 +2244,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22201,5 +22234,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11149.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11149.xlsx
@@ -3620,7 +3620,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -6110,7 +6110,7 @@
         <v>538</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6264,7 +6264,7 @@
         <v>539</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6470,7 +6470,7 @@
         <v>538</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7034,7 +7034,7 @@
         <v>542</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7564,7 +7564,7 @@
         <v>544</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -8056,7 +8056,7 @@
         <v>546</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8452,7 +8452,7 @@
         <v>547</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -8702,7 +8702,7 @@
         <v>549</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9890,7 +9890,7 @@
         <v>550</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10178,7 +10178,7 @@
         <v>551</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -10424,7 +10424,7 @@
         <v>552</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11768,7 +11768,7 @@
         <v>554</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -12448,7 +12448,7 @@
         <v>556</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12738,7 +12738,7 @@
         <v>557</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -14044,7 +14044,7 @@
         <v>559</v>
       </c>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -15222,7 +15222,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15370,7 +15370,7 @@
         <v>560</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -15578,7 +15578,7 @@
         <v>561</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15732,7 +15732,7 @@
         <v>561</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -15940,7 +15940,7 @@
         <v>562</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -16538,7 +16538,7 @@
         <v>563</v>
       </c>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16826,7 +16826,7 @@
         <v>564</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -16962,7 +16962,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -17246,7 +17246,7 @@
         <v>562</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -17398,7 +17398,7 @@
         <v>564</v>
       </c>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -17962,7 +17962,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -18168,7 +18168,7 @@
         <v>565</v>
       </c>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -18374,7 +18374,7 @@
         <v>566</v>
       </c>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -18514,7 +18514,7 @@
         <v>567</v>
       </c>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -18774,7 +18774,7 @@
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -18926,7 +18926,7 @@
         <v>569</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -19080,7 +19080,7 @@
         <v>569</v>
       </c>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -19432,7 +19432,7 @@
         <v>571</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -19828,7 +19828,7 @@
         <v>572</v>
       </c>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -20078,7 +20078,7 @@
         <v>549</v>
       </c>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -20266,7 +20266,7 @@
         <v>573</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -20600,7 +20600,7 @@
         <v>574</v>
       </c>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -20788,7 +20788,7 @@
         <v>575</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -21034,7 +21034,7 @@
         <v>576</v>
       </c>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -21172,7 +21172,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="K360" s="2"/>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -21454,7 +21454,7 @@
         <v>577</v>
       </c>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -21914,7 +21914,7 @@
         <v>579</v>
       </c>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -22196,7 +22196,7 @@
       </c>
       <c r="K378" s="2"/>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -22332,7 +22332,7 @@
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -22478,7 +22478,7 @@
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -22844,7 +22844,7 @@
         <v>580</v>
       </c>
       <c r="L391" s="4"/>
-      <c r="M391" s="2" t="s">
+      <c r="M391" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N391" s="2" t="s">
@@ -22982,7 +22982,7 @@
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="4"/>
-      <c r="M394" s="2" t="s">
+      <c r="M394" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N394" s="2" t="s">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -23262,7 +23262,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -23558,7 +23558,7 @@
         <v>581</v>
       </c>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -23830,7 +23830,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -23980,7 +23980,7 @@
         <v>583</v>
       </c>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -24118,7 +24118,7 @@
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -24264,7 +24264,7 @@
       </c>
       <c r="K421" s="2"/>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
-      <c r="M424" s="2" t="s">
+      <c r="M424" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N424" s="2" t="s">
@@ -24548,7 +24548,7 @@
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N427" s="2" t="s">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="K430" s="2"/>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N430" s="2"/>
